--- a/src/test/java/com/inetBanking/testData/LoginData2.xlsx
+++ b/src/test/java/com/inetBanking/testData/LoginData2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renukaprasad GS\eclipse-workspace\inetBankingV1\src\test\java\com\inetBanking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6B4643-69FA-4D5B-9B7F-C67E34C8746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BB4644-02AD-42ED-BC4B-7811D9737479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{938D4CEA-0FAE-4A3A-9B60-4D19183B1D92}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr562991</t>
+    <t>mngr577004</t>
   </si>
   <si>
-    <t>vybEbyg</t>
+    <t>rYtUneb</t>
   </si>
 </sst>
 </file>
